--- a/tests/iltwebsite testcaseplan.xlsx
+++ b/tests/iltwebsite testcaseplan.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYDOC\ILTWORKS\iltTests\tests\ILTSoftwareTests\GitHub\ILTWebsiteManagement\tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -141,48 +149,75 @@
   <si>
     <t xml:space="preserve">sign up test </t>
   </si>
+  <si>
+    <t>NavILTWeb</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Developed</t>
+  </si>
+  <si>
+    <t>Navigate to ilt website</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -190,7 +225,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -200,94 +235,193 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="17">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF6AA84F"/>
           <bgColor rgb="FF6AA84F"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCC0000"/>
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -477,27 +611,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.88"/>
-    <col customWidth="1" min="2" max="2" width="28.88"/>
-    <col customWidth="1" min="5" max="5" width="28.38"/>
-    <col customWidth="1" min="6" max="6" width="20.13"/>
-    <col customWidth="1" min="7" max="7" width="21.75"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,57 +659,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4">
+      <c r="F3" s="8"/>
+      <c r="G3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5">
+      <c r="G4" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -578,14 +725,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6">
+      <c r="G5" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
@@ -593,89 +742,105 @@
         <v>14</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7">
+      <c r="G6" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8">
+      <c r="G7" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9">
+      <c r="G8" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10">
+      <c r="G9" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11">
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12">
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7"/>
@@ -683,14 +848,16 @@
         <v>27</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13">
+      <c r="G12" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="7"/>
@@ -698,14 +865,16 @@
         <v>27</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14">
+      <c r="G13" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="7"/>
@@ -713,29 +882,35 @@
         <v>27</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="7"/>
+      <c r="G14" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16">
+        <v>27</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -743,3978 +918,4023 @@
         <v>40</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17">
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18">
+      <c r="G16" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33">
+    <row r="33" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34">
+    <row r="34" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35">
+    <row r="35" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36">
+    <row r="36" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37">
+    <row r="37" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38">
+    <row r="38" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39">
+    <row r="39" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40">
+    <row r="40" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41">
+    <row r="41" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42">
+    <row r="42" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43">
+    <row r="43" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44">
+    <row r="44" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45">
+    <row r="45" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46">
+    <row r="46" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47">
+    <row r="47" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48">
+    <row r="48" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49">
+    <row r="49" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50">
+    <row r="50" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51">
+    <row r="51" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52">
+    <row r="52" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53">
+    <row r="53" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54">
+    <row r="54" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55">
+    <row r="55" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56">
+    <row r="56" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57">
+    <row r="57" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58">
+    <row r="58" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59">
+    <row r="59" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60">
+    <row r="60" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61">
+    <row r="61" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62">
+    <row r="62" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63">
+    <row r="63" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64">
+    <row r="64" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65">
+    <row r="65" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66">
+    <row r="66" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67">
+    <row r="67" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68">
+    <row r="68" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69">
+    <row r="69" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70">
+    <row r="70" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="71">
+    <row r="71" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72">
+    <row r="72" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
     </row>
-    <row r="73">
+    <row r="73" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74">
+    <row r="74" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75">
+    <row r="75" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76">
+    <row r="76" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77">
+    <row r="77" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78">
+    <row r="78" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79">
+    <row r="79" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80">
+    <row r="80" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81">
+    <row r="81" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82">
+    <row r="82" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83">
+    <row r="83" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84">
+    <row r="84" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85">
+    <row r="85" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86">
+    <row r="86" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87">
+    <row r="87" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88">
+    <row r="88" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89">
+    <row r="89" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90">
+    <row r="90" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91">
+    <row r="91" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92">
+    <row r="92" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93">
+    <row r="93" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94">
+    <row r="94" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95">
+    <row r="95" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96">
+    <row r="96" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97">
+    <row r="97" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98">
+    <row r="98" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99">
+    <row r="99" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100">
+    <row r="100" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101">
+    <row r="101" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102">
+    <row r="102" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103">
+    <row r="103" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104">
+    <row r="104" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105">
+    <row r="105" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106">
+    <row r="106" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107">
+    <row r="107" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108">
+    <row r="108" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109">
+    <row r="109" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110">
+    <row r="110" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111">
+    <row r="111" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112">
+    <row r="112" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113">
+    <row r="113" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114">
+    <row r="114" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115">
+    <row r="115" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116">
+    <row r="116" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117">
+    <row r="117" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118">
+    <row r="118" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119">
+    <row r="119" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120">
+    <row r="120" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121">
+    <row r="121" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122">
+    <row r="122" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123">
+    <row r="123" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124">
+    <row r="124" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125">
+    <row r="125" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126">
+    <row r="126" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127">
+    <row r="127" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128">
+    <row r="128" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129">
+    <row r="129" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130">
+    <row r="130" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131">
+    <row r="131" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132">
+    <row r="132" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133">
+    <row r="133" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134">
+    <row r="134" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135">
+    <row r="135" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136">
+    <row r="136" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137">
+    <row r="137" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138">
+    <row r="138" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139">
+    <row r="139" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140">
+    <row r="140" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141">
+    <row r="141" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142">
+    <row r="142" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143">
+    <row r="143" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144">
+    <row r="144" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145">
+    <row r="145" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146">
+    <row r="146" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147">
+    <row r="147" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148">
+    <row r="148" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149">
+    <row r="149" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150">
+    <row r="150" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151">
+    <row r="151" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152">
+    <row r="152" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153">
+    <row r="153" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154">
+    <row r="154" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155">
+    <row r="155" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156">
+    <row r="156" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157">
+    <row r="157" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158">
+    <row r="158" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159">
+    <row r="159" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160">
+    <row r="160" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161">
+    <row r="161" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162">
+    <row r="162" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163">
+    <row r="163" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164">
+    <row r="164" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165">
+    <row r="165" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166">
+    <row r="166" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167">
+    <row r="167" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168">
+    <row r="168" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169">
+    <row r="169" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170">
+    <row r="170" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171">
+    <row r="171" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172">
+    <row r="172" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173">
+    <row r="173" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174">
+    <row r="174" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
     </row>
-    <row r="175">
+    <row r="175" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176">
+    <row r="176" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177">
+    <row r="177" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178">
+    <row r="178" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
     </row>
-    <row r="179">
+    <row r="179" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180">
+    <row r="180" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
     </row>
-    <row r="181">
+    <row r="181" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182">
+    <row r="182" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183">
+    <row r="183" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184">
+    <row r="184" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
     </row>
-    <row r="185">
+    <row r="185" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186">
+    <row r="186" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187">
+    <row r="187" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188">
+    <row r="188" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189">
+    <row r="189" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190">
+    <row r="190" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191">
+    <row r="191" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192">
+    <row r="192" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193">
+    <row r="193" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194">
+    <row r="194" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195">
+    <row r="195" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196">
+    <row r="196" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197">
+    <row r="197" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198">
+    <row r="198" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199">
+    <row r="199" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F199" s="12"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200">
+    <row r="200" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201">
+    <row r="201" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202">
+    <row r="202" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203">
+    <row r="203" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204">
+    <row r="204" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205">
+    <row r="205" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206">
+    <row r="206" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207">
+    <row r="207" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208">
+    <row r="208" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209">
+    <row r="209" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210">
+    <row r="210" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211">
+    <row r="211" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212">
+    <row r="212" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
     </row>
-    <row r="213">
+    <row r="213" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214">
+    <row r="214" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F214" s="12"/>
       <c r="G214" s="12"/>
     </row>
-    <row r="215">
+    <row r="215" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F215" s="12"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216">
+    <row r="216" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F216" s="12"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217">
+    <row r="217" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F217" s="12"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218">
+    <row r="218" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F218" s="12"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219">
+    <row r="219" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F219" s="12"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220">
+    <row r="220" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221">
+    <row r="221" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222">
+    <row r="222" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
     </row>
-    <row r="223">
+    <row r="223" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224">
+    <row r="224" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
     </row>
-    <row r="225">
+    <row r="225" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226">
+    <row r="226" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
     </row>
-    <row r="227">
+    <row r="227" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228">
+    <row r="228" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F228" s="12"/>
       <c r="G228" s="12"/>
     </row>
-    <row r="229">
+    <row r="229" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F229" s="12"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230">
+    <row r="230" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F230" s="12"/>
       <c r="G230" s="12"/>
     </row>
-    <row r="231">
+    <row r="231" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F231" s="12"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232">
+    <row r="232" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F232" s="12"/>
       <c r="G232" s="12"/>
     </row>
-    <row r="233">
+    <row r="233" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F233" s="12"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234">
+    <row r="234" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F234" s="12"/>
       <c r="G234" s="12"/>
     </row>
-    <row r="235">
+    <row r="235" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
     </row>
-    <row r="236">
+    <row r="236" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F236" s="12"/>
       <c r="G236" s="12"/>
     </row>
-    <row r="237">
+    <row r="237" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F237" s="12"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238">
+    <row r="238" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F238" s="12"/>
       <c r="G238" s="12"/>
     </row>
-    <row r="239">
+    <row r="239" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F239" s="12"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240">
+    <row r="240" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F240" s="12"/>
       <c r="G240" s="12"/>
     </row>
-    <row r="241">
+    <row r="241" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F241" s="12"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242">
+    <row r="242" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
     </row>
-    <row r="243">
+    <row r="243" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244">
+    <row r="244" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
     </row>
-    <row r="245">
+    <row r="245" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246">
+    <row r="246" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
     </row>
-    <row r="247">
+    <row r="247" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F247" s="12"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248">
+    <row r="248" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F248" s="12"/>
       <c r="G248" s="12"/>
     </row>
-    <row r="249">
+    <row r="249" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F249" s="12"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250">
+    <row r="250" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F250" s="12"/>
       <c r="G250" s="12"/>
     </row>
-    <row r="251">
+    <row r="251" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F251" s="12"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252">
+    <row r="252" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F252" s="12"/>
       <c r="G252" s="12"/>
     </row>
-    <row r="253">
+    <row r="253" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F253" s="12"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254">
+    <row r="254" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F254" s="12"/>
       <c r="G254" s="12"/>
     </row>
-    <row r="255">
+    <row r="255" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F255" s="12"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256">
+    <row r="256" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F256" s="12"/>
       <c r="G256" s="12"/>
     </row>
-    <row r="257">
+    <row r="257" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F257" s="12"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258">
+    <row r="258" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F258" s="12"/>
       <c r="G258" s="12"/>
     </row>
-    <row r="259">
+    <row r="259" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F259" s="12"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260">
+    <row r="260" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F260" s="12"/>
       <c r="G260" s="12"/>
     </row>
-    <row r="261">
+    <row r="261" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F261" s="12"/>
       <c r="G261" s="12"/>
     </row>
-    <row r="262">
+    <row r="262" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F262" s="12"/>
       <c r="G262" s="12"/>
     </row>
-    <row r="263">
+    <row r="263" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F263" s="12"/>
       <c r="G263" s="12"/>
     </row>
-    <row r="264">
+    <row r="264" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F264" s="12"/>
       <c r="G264" s="12"/>
     </row>
-    <row r="265">
+    <row r="265" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F265" s="12"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266">
+    <row r="266" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F266" s="12"/>
       <c r="G266" s="12"/>
     </row>
-    <row r="267">
+    <row r="267" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F267" s="12"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268">
+    <row r="268" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F268" s="12"/>
       <c r="G268" s="12"/>
     </row>
-    <row r="269">
+    <row r="269" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F269" s="12"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270">
+    <row r="270" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F270" s="12"/>
       <c r="G270" s="12"/>
     </row>
-    <row r="271">
+    <row r="271" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F271" s="12"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272">
+    <row r="272" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F272" s="12"/>
       <c r="G272" s="12"/>
     </row>
-    <row r="273">
+    <row r="273" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F273" s="12"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274">
+    <row r="274" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F274" s="12"/>
       <c r="G274" s="12"/>
     </row>
-    <row r="275">
+    <row r="275" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F275" s="12"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276">
+    <row r="276" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F276" s="12"/>
       <c r="G276" s="12"/>
     </row>
-    <row r="277">
+    <row r="277" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F277" s="12"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278">
+    <row r="278" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
     </row>
-    <row r="279">
+    <row r="279" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280">
+    <row r="280" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
     </row>
-    <row r="281">
+    <row r="281" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282">
+    <row r="282" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
     </row>
-    <row r="283">
+    <row r="283" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F283" s="12"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284">
+    <row r="284" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F284" s="12"/>
       <c r="G284" s="12"/>
     </row>
-    <row r="285">
+    <row r="285" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286">
+    <row r="286" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
     </row>
-    <row r="287">
+    <row r="287" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288">
+    <row r="288" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
     </row>
-    <row r="289">
+    <row r="289" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290">
+    <row r="290" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F290" s="12"/>
       <c r="G290" s="12"/>
     </row>
-    <row r="291">
+    <row r="291" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F291" s="12"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292">
+    <row r="292" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F292" s="12"/>
       <c r="G292" s="12"/>
     </row>
-    <row r="293">
+    <row r="293" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F293" s="12"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294">
+    <row r="294" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F294" s="12"/>
       <c r="G294" s="12"/>
     </row>
-    <row r="295">
+    <row r="295" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F295" s="12"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296">
+    <row r="296" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F296" s="12"/>
       <c r="G296" s="12"/>
     </row>
-    <row r="297">
+    <row r="297" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F297" s="12"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298">
+    <row r="298" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F298" s="12"/>
       <c r="G298" s="12"/>
     </row>
-    <row r="299">
+    <row r="299" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F299" s="12"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300">
+    <row r="300" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F300" s="12"/>
       <c r="G300" s="12"/>
     </row>
-    <row r="301">
+    <row r="301" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F301" s="12"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302">
+    <row r="302" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F302" s="12"/>
       <c r="G302" s="12"/>
     </row>
-    <row r="303">
+    <row r="303" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F303" s="12"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304">
+    <row r="304" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
     </row>
-    <row r="305">
+    <row r="305" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306">
+    <row r="306" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
     </row>
-    <row r="307">
+    <row r="307" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308">
+    <row r="308" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
     </row>
-    <row r="309">
+    <row r="309" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F309" s="12"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310">
+    <row r="310" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F310" s="12"/>
       <c r="G310" s="12"/>
     </row>
-    <row r="311">
+    <row r="311" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F311" s="12"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312">
+    <row r="312" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F312" s="12"/>
       <c r="G312" s="12"/>
     </row>
-    <row r="313">
+    <row r="313" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F313" s="12"/>
       <c r="G313" s="12"/>
     </row>
-    <row r="314">
+    <row r="314" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315">
+    <row r="315" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
     </row>
-    <row r="316">
+    <row r="316" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
     </row>
-    <row r="317">
+    <row r="317" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
     </row>
-    <row r="318">
+    <row r="318" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
     </row>
-    <row r="319">
+    <row r="319" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F319" s="12"/>
       <c r="G319" s="12"/>
     </row>
-    <row r="320">
+    <row r="320" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F320" s="12"/>
       <c r="G320" s="12"/>
     </row>
-    <row r="321">
+    <row r="321" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F321" s="12"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322">
+    <row r="322" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F322" s="12"/>
       <c r="G322" s="12"/>
     </row>
-    <row r="323">
+    <row r="323" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F323" s="12"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324">
+    <row r="324" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F324" s="12"/>
       <c r="G324" s="12"/>
     </row>
-    <row r="325">
+    <row r="325" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F325" s="12"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326">
+    <row r="326" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F326" s="12"/>
       <c r="G326" s="12"/>
     </row>
-    <row r="327">
+    <row r="327" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328">
+    <row r="328" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
     </row>
-    <row r="329">
+    <row r="329" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330">
+    <row r="330" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
     </row>
-    <row r="331">
+    <row r="331" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332">
+    <row r="332" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F332" s="12"/>
       <c r="G332" s="12"/>
     </row>
-    <row r="333">
+    <row r="333" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F333" s="12"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334">
+    <row r="334" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F334" s="12"/>
       <c r="G334" s="12"/>
     </row>
-    <row r="335">
+    <row r="335" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336">
+    <row r="336" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F336" s="12"/>
       <c r="G336" s="12"/>
     </row>
-    <row r="337">
+    <row r="337" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F337" s="12"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338">
+    <row r="338" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F338" s="12"/>
       <c r="G338" s="12"/>
     </row>
-    <row r="339">
+    <row r="339" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340">
+    <row r="340" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
     </row>
-    <row r="341">
+    <row r="341" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342">
+    <row r="342" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
     </row>
-    <row r="343">
+    <row r="343" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
     </row>
-    <row r="344">
+    <row r="344" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F344" s="12"/>
       <c r="G344" s="12"/>
     </row>
-    <row r="345">
+    <row r="345" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F345" s="12"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346">
+    <row r="346" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F346" s="12"/>
       <c r="G346" s="12"/>
     </row>
-    <row r="347">
+    <row r="347" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F347" s="12"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348">
+    <row r="348" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F348" s="12"/>
       <c r="G348" s="12"/>
     </row>
-    <row r="349">
+    <row r="349" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350">
+    <row r="350" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
     </row>
-    <row r="351">
+    <row r="351" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352">
+    <row r="352" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
     </row>
-    <row r="353">
+    <row r="353" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354">
+    <row r="354" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F354" s="12"/>
       <c r="G354" s="12"/>
     </row>
-    <row r="355">
+    <row r="355" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356">
+    <row r="356" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F356" s="12"/>
       <c r="G356" s="12"/>
     </row>
-    <row r="357">
+    <row r="357" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F357" s="12"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358">
+    <row r="358" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F358" s="12"/>
       <c r="G358" s="12"/>
     </row>
-    <row r="359">
+    <row r="359" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360">
+    <row r="360" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F360" s="12"/>
       <c r="G360" s="12"/>
     </row>
-    <row r="361">
+    <row r="361" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F361" s="12"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362">
+    <row r="362" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F362" s="12"/>
       <c r="G362" s="12"/>
     </row>
-    <row r="363">
+    <row r="363" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364">
+    <row r="364" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
     </row>
-    <row r="365">
+    <row r="365" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366">
+    <row r="366" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
     </row>
-    <row r="367">
+    <row r="367" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368">
+    <row r="368" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F368" s="12"/>
       <c r="G368" s="12"/>
     </row>
-    <row r="369">
+    <row r="369" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370">
+    <row r="370" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F370" s="12"/>
       <c r="G370" s="12"/>
     </row>
-    <row r="371">
+    <row r="371" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F371" s="12"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372">
+    <row r="372" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F372" s="12"/>
       <c r="G372" s="12"/>
     </row>
-    <row r="373">
+    <row r="373" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F373" s="12"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374">
+    <row r="374" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F374" s="12"/>
       <c r="G374" s="12"/>
     </row>
-    <row r="375">
+    <row r="375" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F375" s="12"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376">
+    <row r="376" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F376" s="12"/>
       <c r="G376" s="12"/>
     </row>
-    <row r="377">
+    <row r="377" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F377" s="12"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378">
+    <row r="378" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F378" s="12"/>
       <c r="G378" s="12"/>
     </row>
-    <row r="379">
+    <row r="379" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F379" s="12"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380">
+    <row r="380" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F380" s="12"/>
       <c r="G380" s="12"/>
     </row>
-    <row r="381">
+    <row r="381" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F381" s="12"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382">
+    <row r="382" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F382" s="12"/>
       <c r="G382" s="12"/>
     </row>
-    <row r="383">
+    <row r="383" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
     </row>
-    <row r="384">
+    <row r="384" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
     </row>
-    <row r="385">
+    <row r="385" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386">
+    <row r="386" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
     </row>
-    <row r="387">
+    <row r="387" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388">
+    <row r="388" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F388" s="12"/>
       <c r="G388" s="12"/>
     </row>
-    <row r="389">
+    <row r="389" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F389" s="12"/>
       <c r="G389" s="12"/>
     </row>
-    <row r="390">
+    <row r="390" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F390" s="12"/>
       <c r="G390" s="12"/>
     </row>
-    <row r="391">
+    <row r="391" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F391" s="12"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392">
+    <row r="392" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F392" s="12"/>
       <c r="G392" s="12"/>
     </row>
-    <row r="393">
+    <row r="393" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F393" s="12"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394">
+    <row r="394" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F394" s="12"/>
       <c r="G394" s="12"/>
     </row>
-    <row r="395">
+    <row r="395" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F395" s="12"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396">
+    <row r="396" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F396" s="12"/>
       <c r="G396" s="12"/>
     </row>
-    <row r="397">
+    <row r="397" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F397" s="12"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398">
+    <row r="398" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F398" s="12"/>
       <c r="G398" s="12"/>
     </row>
-    <row r="399">
+    <row r="399" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F399" s="12"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400">
+    <row r="400" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
     </row>
-    <row r="401">
+    <row r="401" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F401" s="12"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402">
+    <row r="402" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F402" s="12"/>
       <c r="G402" s="12"/>
     </row>
-    <row r="403">
+    <row r="403" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F403" s="12"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404">
+    <row r="404" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F404" s="12"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405">
+    <row r="405" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F405" s="12"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406">
+    <row r="406" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F406" s="12"/>
       <c r="G406" s="12"/>
     </row>
-    <row r="407">
+    <row r="407" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F407" s="12"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408">
+    <row r="408" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F408" s="12"/>
       <c r="G408" s="12"/>
     </row>
-    <row r="409">
+    <row r="409" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F409" s="12"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410">
+    <row r="410" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F410" s="12"/>
       <c r="G410" s="12"/>
     </row>
-    <row r="411">
+    <row r="411" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F411" s="12"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412">
+    <row r="412" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F412" s="12"/>
       <c r="G412" s="12"/>
     </row>
-    <row r="413">
+    <row r="413" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F413" s="12"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414">
+    <row r="414" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F414" s="12"/>
       <c r="G414" s="12"/>
     </row>
-    <row r="415">
+    <row r="415" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416">
+    <row r="416" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F416" s="12"/>
       <c r="G416" s="12"/>
     </row>
-    <row r="417">
+    <row r="417" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418">
+    <row r="418" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
     </row>
-    <row r="419">
+    <row r="419" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420">
+    <row r="420" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421">
+    <row r="421" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422">
+    <row r="422" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
     </row>
-    <row r="423">
+    <row r="423" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F423" s="12"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424">
+    <row r="424" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F424" s="12"/>
       <c r="G424" s="12"/>
     </row>
-    <row r="425">
+    <row r="425" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F425" s="12"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426">
+    <row r="426" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F426" s="12"/>
       <c r="G426" s="12"/>
     </row>
-    <row r="427">
+    <row r="427" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F427" s="12"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428">
+    <row r="428" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F428" s="12"/>
       <c r="G428" s="12"/>
     </row>
-    <row r="429">
+    <row r="429" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F429" s="12"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430">
+    <row r="430" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F430" s="12"/>
       <c r="G430" s="12"/>
     </row>
-    <row r="431">
+    <row r="431" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F431" s="12"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432">
+    <row r="432" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F432" s="12"/>
       <c r="G432" s="12"/>
     </row>
-    <row r="433">
+    <row r="433" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F433" s="12"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434">
+    <row r="434" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F434" s="12"/>
       <c r="G434" s="12"/>
     </row>
-    <row r="435">
+    <row r="435" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F435" s="12"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436">
+    <row r="436" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F436" s="12"/>
       <c r="G436" s="12"/>
     </row>
-    <row r="437">
+    <row r="437" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F437" s="12"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438">
+    <row r="438" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F438" s="12"/>
       <c r="G438" s="12"/>
     </row>
-    <row r="439">
+    <row r="439" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F439" s="12"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440">
+    <row r="440" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F440" s="12"/>
       <c r="G440" s="12"/>
     </row>
-    <row r="441">
+    <row r="441" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F441" s="12"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442">
+    <row r="442" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F442" s="12"/>
       <c r="G442" s="12"/>
     </row>
-    <row r="443">
+    <row r="443" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F443" s="12"/>
       <c r="G443" s="12"/>
     </row>
-    <row r="444">
+    <row r="444" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F444" s="12"/>
       <c r="G444" s="12"/>
     </row>
-    <row r="445">
+    <row r="445" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F445" s="12"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446">
+    <row r="446" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F446" s="12"/>
       <c r="G446" s="12"/>
     </row>
-    <row r="447">
+    <row r="447" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F447" s="12"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448">
+    <row r="448" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F448" s="12"/>
       <c r="G448" s="12"/>
     </row>
-    <row r="449">
+    <row r="449" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F449" s="12"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450">
+    <row r="450" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
     </row>
-    <row r="451">
+    <row r="451" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F451" s="12"/>
       <c r="G451" s="12"/>
     </row>
-    <row r="452">
+    <row r="452" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F452" s="12"/>
       <c r="G452" s="12"/>
     </row>
-    <row r="453">
+    <row r="453" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F453" s="12"/>
       <c r="G453" s="12"/>
     </row>
-    <row r="454">
+    <row r="454" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F454" s="12"/>
       <c r="G454" s="12"/>
     </row>
-    <row r="455">
+    <row r="455" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F455" s="12"/>
       <c r="G455" s="12"/>
     </row>
-    <row r="456">
+    <row r="456" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F456" s="12"/>
       <c r="G456" s="12"/>
     </row>
-    <row r="457">
+    <row r="457" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F457" s="12"/>
       <c r="G457" s="12"/>
     </row>
-    <row r="458">
+    <row r="458" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F458" s="12"/>
       <c r="G458" s="12"/>
     </row>
-    <row r="459">
+    <row r="459" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F459" s="12"/>
       <c r="G459" s="12"/>
     </row>
-    <row r="460">
+    <row r="460" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F460" s="12"/>
       <c r="G460" s="12"/>
     </row>
-    <row r="461">
+    <row r="461" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F461" s="12"/>
       <c r="G461" s="12"/>
     </row>
-    <row r="462">
+    <row r="462" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F462" s="12"/>
       <c r="G462" s="12"/>
     </row>
-    <row r="463">
+    <row r="463" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F463" s="12"/>
       <c r="G463" s="12"/>
     </row>
-    <row r="464">
+    <row r="464" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F464" s="12"/>
       <c r="G464" s="12"/>
     </row>
-    <row r="465">
+    <row r="465" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F465" s="12"/>
       <c r="G465" s="12"/>
     </row>
-    <row r="466">
+    <row r="466" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F466" s="12"/>
       <c r="G466" s="12"/>
     </row>
-    <row r="467">
+    <row r="467" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F467" s="12"/>
       <c r="G467" s="12"/>
     </row>
-    <row r="468">
+    <row r="468" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F468" s="12"/>
       <c r="G468" s="12"/>
     </row>
-    <row r="469">
+    <row r="469" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
     </row>
-    <row r="470">
+    <row r="470" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
     </row>
-    <row r="471">
+    <row r="471" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
     </row>
-    <row r="472">
+    <row r="472" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
     </row>
-    <row r="473">
+    <row r="473" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
     </row>
-    <row r="474">
+    <row r="474" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F474" s="12"/>
       <c r="G474" s="12"/>
     </row>
-    <row r="475">
+    <row r="475" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F475" s="12"/>
       <c r="G475" s="12"/>
     </row>
-    <row r="476">
+    <row r="476" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F476" s="12"/>
       <c r="G476" s="12"/>
     </row>
-    <row r="477">
+    <row r="477" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F477" s="12"/>
       <c r="G477" s="12"/>
     </row>
-    <row r="478">
+    <row r="478" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F478" s="12"/>
       <c r="G478" s="12"/>
     </row>
-    <row r="479">
+    <row r="479" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F479" s="12"/>
       <c r="G479" s="12"/>
     </row>
-    <row r="480">
+    <row r="480" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F480" s="12"/>
       <c r="G480" s="12"/>
     </row>
-    <row r="481">
+    <row r="481" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F481" s="12"/>
       <c r="G481" s="12"/>
     </row>
-    <row r="482">
+    <row r="482" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F482" s="12"/>
       <c r="G482" s="12"/>
     </row>
-    <row r="483">
+    <row r="483" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F483" s="12"/>
       <c r="G483" s="12"/>
     </row>
-    <row r="484">
+    <row r="484" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F484" s="12"/>
       <c r="G484" s="12"/>
     </row>
-    <row r="485">
+    <row r="485" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F485" s="12"/>
       <c r="G485" s="12"/>
     </row>
-    <row r="486">
+    <row r="486" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F486" s="12"/>
       <c r="G486" s="12"/>
     </row>
-    <row r="487">
+    <row r="487" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F487" s="12"/>
       <c r="G487" s="12"/>
     </row>
-    <row r="488">
+    <row r="488" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F488" s="12"/>
       <c r="G488" s="12"/>
     </row>
-    <row r="489">
+    <row r="489" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F489" s="12"/>
       <c r="G489" s="12"/>
     </row>
-    <row r="490">
+    <row r="490" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F490" s="12"/>
       <c r="G490" s="12"/>
     </row>
-    <row r="491">
+    <row r="491" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F491" s="12"/>
       <c r="G491" s="12"/>
     </row>
-    <row r="492">
+    <row r="492" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F492" s="12"/>
       <c r="G492" s="12"/>
     </row>
-    <row r="493">
+    <row r="493" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F493" s="12"/>
       <c r="G493" s="12"/>
     </row>
-    <row r="494">
+    <row r="494" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F494" s="12"/>
       <c r="G494" s="12"/>
     </row>
-    <row r="495">
+    <row r="495" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
     </row>
-    <row r="496">
+    <row r="496" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
     </row>
-    <row r="497">
+    <row r="497" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
     </row>
-    <row r="498">
+    <row r="498" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
     </row>
-    <row r="499">
+    <row r="499" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F499" s="12"/>
       <c r="G499" s="12"/>
     </row>
-    <row r="500">
+    <row r="500" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F500" s="12"/>
       <c r="G500" s="12"/>
     </row>
-    <row r="501">
+    <row r="501" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
     </row>
-    <row r="502">
+    <row r="502" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
     </row>
-    <row r="503">
+    <row r="503" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F503" s="12"/>
       <c r="G503" s="12"/>
     </row>
-    <row r="504">
+    <row r="504" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F504" s="12"/>
       <c r="G504" s="12"/>
     </row>
-    <row r="505">
+    <row r="505" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F505" s="12"/>
       <c r="G505" s="12"/>
     </row>
-    <row r="506">
+    <row r="506" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F506" s="12"/>
       <c r="G506" s="12"/>
     </row>
-    <row r="507">
+    <row r="507" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F507" s="12"/>
       <c r="G507" s="12"/>
     </row>
-    <row r="508">
+    <row r="508" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F508" s="12"/>
       <c r="G508" s="12"/>
     </row>
-    <row r="509">
+    <row r="509" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F509" s="12"/>
       <c r="G509" s="12"/>
     </row>
-    <row r="510">
+    <row r="510" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F510" s="12"/>
       <c r="G510" s="12"/>
     </row>
-    <row r="511">
+    <row r="511" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F511" s="12"/>
       <c r="G511" s="12"/>
     </row>
-    <row r="512">
+    <row r="512" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F512" s="12"/>
       <c r="G512" s="12"/>
     </row>
-    <row r="513">
+    <row r="513" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F513" s="12"/>
       <c r="G513" s="12"/>
     </row>
-    <row r="514">
+    <row r="514" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F514" s="12"/>
       <c r="G514" s="12"/>
     </row>
-    <row r="515">
+    <row r="515" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F515" s="12"/>
       <c r="G515" s="12"/>
     </row>
-    <row r="516">
+    <row r="516" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F516" s="12"/>
       <c r="G516" s="12"/>
     </row>
-    <row r="517">
+    <row r="517" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F517" s="12"/>
       <c r="G517" s="12"/>
     </row>
-    <row r="518">
+    <row r="518" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F518" s="12"/>
       <c r="G518" s="12"/>
     </row>
-    <row r="519">
+    <row r="519" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F519" s="12"/>
       <c r="G519" s="12"/>
     </row>
-    <row r="520">
+    <row r="520" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
     </row>
-    <row r="521">
+    <row r="521" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
     </row>
-    <row r="522">
+    <row r="522" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
     </row>
-    <row r="523">
+    <row r="523" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
     </row>
-    <row r="524">
+    <row r="524" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F524" s="12"/>
       <c r="G524" s="12"/>
     </row>
-    <row r="525">
+    <row r="525" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F525" s="12"/>
       <c r="G525" s="12"/>
     </row>
-    <row r="526">
+    <row r="526" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F526" s="12"/>
       <c r="G526" s="12"/>
     </row>
-    <row r="527">
+    <row r="527" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F527" s="12"/>
       <c r="G527" s="12"/>
     </row>
-    <row r="528">
+    <row r="528" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F528" s="12"/>
       <c r="G528" s="12"/>
     </row>
-    <row r="529">
+    <row r="529" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F529" s="12"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530">
+    <row r="530" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F530" s="12"/>
       <c r="G530" s="12"/>
     </row>
-    <row r="531">
+    <row r="531" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F531" s="12"/>
       <c r="G531" s="12"/>
     </row>
-    <row r="532">
+    <row r="532" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F532" s="12"/>
       <c r="G532" s="12"/>
     </row>
-    <row r="533">
+    <row r="533" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F533" s="12"/>
       <c r="G533" s="12"/>
     </row>
-    <row r="534">
+    <row r="534" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F534" s="12"/>
       <c r="G534" s="12"/>
     </row>
-    <row r="535">
+    <row r="535" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F535" s="12"/>
       <c r="G535" s="12"/>
     </row>
-    <row r="536">
+    <row r="536" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F536" s="12"/>
       <c r="G536" s="12"/>
     </row>
-    <row r="537">
+    <row r="537" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F537" s="12"/>
       <c r="G537" s="12"/>
     </row>
-    <row r="538">
+    <row r="538" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F538" s="12"/>
       <c r="G538" s="12"/>
     </row>
-    <row r="539">
+    <row r="539" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F539" s="12"/>
       <c r="G539" s="12"/>
     </row>
-    <row r="540">
+    <row r="540" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F540" s="12"/>
       <c r="G540" s="12"/>
     </row>
-    <row r="541">
+    <row r="541" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F541" s="12"/>
       <c r="G541" s="12"/>
     </row>
-    <row r="542">
+    <row r="542" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F542" s="12"/>
       <c r="G542" s="12"/>
     </row>
-    <row r="543">
+    <row r="543" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F543" s="12"/>
       <c r="G543" s="12"/>
     </row>
-    <row r="544">
+    <row r="544" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F544" s="12"/>
       <c r="G544" s="12"/>
     </row>
-    <row r="545">
+    <row r="545" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F545" s="12"/>
       <c r="G545" s="12"/>
     </row>
-    <row r="546">
+    <row r="546" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F546" s="12"/>
       <c r="G546" s="12"/>
     </row>
-    <row r="547">
+    <row r="547" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
     </row>
-    <row r="548">
+    <row r="548" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
     </row>
-    <row r="549">
+    <row r="549" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
     </row>
-    <row r="550">
+    <row r="550" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551">
+    <row r="551" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
     </row>
-    <row r="552">
+    <row r="552" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F552" s="12"/>
       <c r="G552" s="12"/>
     </row>
-    <row r="553">
+    <row r="553" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F553" s="12"/>
       <c r="G553" s="12"/>
     </row>
-    <row r="554">
+    <row r="554" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F554" s="12"/>
       <c r="G554" s="12"/>
     </row>
-    <row r="555">
+    <row r="555" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F555" s="12"/>
       <c r="G555" s="12"/>
     </row>
-    <row r="556">
+    <row r="556" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F556" s="12"/>
       <c r="G556" s="12"/>
     </row>
-    <row r="557">
+    <row r="557" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F557" s="12"/>
       <c r="G557" s="12"/>
     </row>
-    <row r="558">
+    <row r="558" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F558" s="12"/>
       <c r="G558" s="12"/>
     </row>
-    <row r="559">
+    <row r="559" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F559" s="12"/>
       <c r="G559" s="12"/>
     </row>
-    <row r="560">
+    <row r="560" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F560" s="12"/>
       <c r="G560" s="12"/>
     </row>
-    <row r="561">
+    <row r="561" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F561" s="12"/>
       <c r="G561" s="12"/>
     </row>
-    <row r="562">
+    <row r="562" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F562" s="12"/>
       <c r="G562" s="12"/>
     </row>
-    <row r="563">
+    <row r="563" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F563" s="12"/>
       <c r="G563" s="12"/>
     </row>
-    <row r="564">
+    <row r="564" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F564" s="12"/>
       <c r="G564" s="12"/>
     </row>
-    <row r="565">
+    <row r="565" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F565" s="12"/>
       <c r="G565" s="12"/>
     </row>
-    <row r="566">
+    <row r="566" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F566" s="12"/>
       <c r="G566" s="12"/>
     </row>
-    <row r="567">
+    <row r="567" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F567" s="12"/>
       <c r="G567" s="12"/>
     </row>
-    <row r="568">
+    <row r="568" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F568" s="12"/>
       <c r="G568" s="12"/>
     </row>
-    <row r="569">
+    <row r="569" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F569" s="12"/>
       <c r="G569" s="12"/>
     </row>
-    <row r="570">
+    <row r="570" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F570" s="12"/>
       <c r="G570" s="12"/>
     </row>
-    <row r="571">
+    <row r="571" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F571" s="12"/>
       <c r="G571" s="12"/>
     </row>
-    <row r="572">
+    <row r="572" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F572" s="12"/>
       <c r="G572" s="12"/>
     </row>
-    <row r="573">
+    <row r="573" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F573" s="12"/>
       <c r="G573" s="12"/>
     </row>
-    <row r="574">
+    <row r="574" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F574" s="12"/>
       <c r="G574" s="12"/>
     </row>
-    <row r="575">
+    <row r="575" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F575" s="12"/>
       <c r="G575" s="12"/>
     </row>
-    <row r="576">
+    <row r="576" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F576" s="12"/>
       <c r="G576" s="12"/>
     </row>
-    <row r="577">
+    <row r="577" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F577" s="12"/>
       <c r="G577" s="12"/>
     </row>
-    <row r="578">
+    <row r="578" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F578" s="12"/>
       <c r="G578" s="12"/>
     </row>
-    <row r="579">
+    <row r="579" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F579" s="12"/>
       <c r="G579" s="12"/>
     </row>
-    <row r="580">
+    <row r="580" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
     </row>
-    <row r="581">
+    <row r="581" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
     </row>
-    <row r="582">
+    <row r="582" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
     </row>
-    <row r="583">
+    <row r="583" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
     </row>
-    <row r="584">
+    <row r="584" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
     </row>
-    <row r="585">
+    <row r="585" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F585" s="12"/>
       <c r="G585" s="12"/>
     </row>
-    <row r="586">
+    <row r="586" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F586" s="12"/>
       <c r="G586" s="12"/>
     </row>
-    <row r="587">
+    <row r="587" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F587" s="12"/>
       <c r="G587" s="12"/>
     </row>
-    <row r="588">
+    <row r="588" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F588" s="12"/>
       <c r="G588" s="12"/>
     </row>
-    <row r="589">
+    <row r="589" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F589" s="12"/>
       <c r="G589" s="12"/>
     </row>
-    <row r="590">
+    <row r="590" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F590" s="12"/>
       <c r="G590" s="12"/>
     </row>
-    <row r="591">
+    <row r="591" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F591" s="12"/>
       <c r="G591" s="12"/>
     </row>
-    <row r="592">
+    <row r="592" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F592" s="12"/>
       <c r="G592" s="12"/>
     </row>
-    <row r="593">
+    <row r="593" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F593" s="12"/>
       <c r="G593" s="12"/>
     </row>
-    <row r="594">
+    <row r="594" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F594" s="12"/>
       <c r="G594" s="12"/>
     </row>
-    <row r="595">
+    <row r="595" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F595" s="12"/>
       <c r="G595" s="12"/>
     </row>
-    <row r="596">
+    <row r="596" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F596" s="12"/>
       <c r="G596" s="12"/>
     </row>
-    <row r="597">
+    <row r="597" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F597" s="12"/>
       <c r="G597" s="12"/>
     </row>
-    <row r="598">
+    <row r="598" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F598" s="12"/>
       <c r="G598" s="12"/>
     </row>
-    <row r="599">
+    <row r="599" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F599" s="12"/>
       <c r="G599" s="12"/>
     </row>
-    <row r="600">
+    <row r="600" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F600" s="12"/>
       <c r="G600" s="12"/>
     </row>
-    <row r="601">
+    <row r="601" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F601" s="12"/>
       <c r="G601" s="12"/>
     </row>
-    <row r="602">
+    <row r="602" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F602" s="12"/>
       <c r="G602" s="12"/>
     </row>
-    <row r="603">
+    <row r="603" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F603" s="12"/>
       <c r="G603" s="12"/>
     </row>
-    <row r="604">
+    <row r="604" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F604" s="12"/>
       <c r="G604" s="12"/>
     </row>
-    <row r="605">
+    <row r="605" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F605" s="12"/>
       <c r="G605" s="12"/>
     </row>
-    <row r="606">
+    <row r="606" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F606" s="12"/>
       <c r="G606" s="12"/>
     </row>
-    <row r="607">
+    <row r="607" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F607" s="12"/>
       <c r="G607" s="12"/>
     </row>
-    <row r="608">
+    <row r="608" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
     </row>
-    <row r="609">
+    <row r="609" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
     </row>
-    <row r="610">
+    <row r="610" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
     </row>
-    <row r="611">
+    <row r="611" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
     </row>
-    <row r="612">
+    <row r="612" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
     </row>
-    <row r="613">
+    <row r="613" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F613" s="12"/>
       <c r="G613" s="12"/>
     </row>
-    <row r="614">
+    <row r="614" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F614" s="12"/>
       <c r="G614" s="12"/>
     </row>
-    <row r="615">
+    <row r="615" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F615" s="12"/>
       <c r="G615" s="12"/>
     </row>
-    <row r="616">
+    <row r="616" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F616" s="12"/>
       <c r="G616" s="12"/>
     </row>
-    <row r="617">
+    <row r="617" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F617" s="12"/>
       <c r="G617" s="12"/>
     </row>
-    <row r="618">
+    <row r="618" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F618" s="12"/>
       <c r="G618" s="12"/>
     </row>
-    <row r="619">
+    <row r="619" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F619" s="12"/>
       <c r="G619" s="12"/>
     </row>
-    <row r="620">
+    <row r="620" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F620" s="12"/>
       <c r="G620" s="12"/>
     </row>
-    <row r="621">
+    <row r="621" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F621" s="12"/>
       <c r="G621" s="12"/>
     </row>
-    <row r="622">
+    <row r="622" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F622" s="12"/>
       <c r="G622" s="12"/>
     </row>
-    <row r="623">
+    <row r="623" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F623" s="12"/>
       <c r="G623" s="12"/>
     </row>
-    <row r="624">
+    <row r="624" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F624" s="12"/>
       <c r="G624" s="12"/>
     </row>
-    <row r="625">
+    <row r="625" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F625" s="12"/>
       <c r="G625" s="12"/>
     </row>
-    <row r="626">
+    <row r="626" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F626" s="12"/>
       <c r="G626" s="12"/>
     </row>
-    <row r="627">
+    <row r="627" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F627" s="12"/>
       <c r="G627" s="12"/>
     </row>
-    <row r="628">
+    <row r="628" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F628" s="12"/>
       <c r="G628" s="12"/>
     </row>
-    <row r="629">
+    <row r="629" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F629" s="12"/>
       <c r="G629" s="12"/>
     </row>
-    <row r="630">
+    <row r="630" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F630" s="12"/>
       <c r="G630" s="12"/>
     </row>
-    <row r="631">
+    <row r="631" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F631" s="12"/>
       <c r="G631" s="12"/>
     </row>
-    <row r="632">
+    <row r="632" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F632" s="12"/>
       <c r="G632" s="12"/>
     </row>
-    <row r="633">
+    <row r="633" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F633" s="12"/>
       <c r="G633" s="12"/>
     </row>
-    <row r="634">
+    <row r="634" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F634" s="12"/>
       <c r="G634" s="12"/>
     </row>
-    <row r="635">
+    <row r="635" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F635" s="12"/>
       <c r="G635" s="12"/>
     </row>
-    <row r="636">
+    <row r="636" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F636" s="12"/>
       <c r="G636" s="12"/>
     </row>
-    <row r="637">
+    <row r="637" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F637" s="12"/>
       <c r="G637" s="12"/>
     </row>
-    <row r="638">
+    <row r="638" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F638" s="12"/>
       <c r="G638" s="12"/>
     </row>
-    <row r="639">
+    <row r="639" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F639" s="12"/>
       <c r="G639" s="12"/>
     </row>
-    <row r="640">
+    <row r="640" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F640" s="12"/>
       <c r="G640" s="12"/>
     </row>
-    <row r="641">
+    <row r="641" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F641" s="12"/>
       <c r="G641" s="12"/>
     </row>
-    <row r="642">
+    <row r="642" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F642" s="12"/>
       <c r="G642" s="12"/>
     </row>
-    <row r="643">
+    <row r="643" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F643" s="12"/>
       <c r="G643" s="12"/>
     </row>
-    <row r="644">
+    <row r="644" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F644" s="12"/>
       <c r="G644" s="12"/>
     </row>
-    <row r="645">
+    <row r="645" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F645" s="12"/>
       <c r="G645" s="12"/>
     </row>
-    <row r="646">
+    <row r="646" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F646" s="12"/>
       <c r="G646" s="12"/>
     </row>
-    <row r="647">
+    <row r="647" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F647" s="12"/>
       <c r="G647" s="12"/>
     </row>
-    <row r="648">
+    <row r="648" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F648" s="12"/>
       <c r="G648" s="12"/>
     </row>
-    <row r="649">
+    <row r="649" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F649" s="12"/>
       <c r="G649" s="12"/>
     </row>
-    <row r="650">
+    <row r="650" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F650" s="12"/>
       <c r="G650" s="12"/>
     </row>
-    <row r="651">
+    <row r="651" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F651" s="12"/>
       <c r="G651" s="12"/>
     </row>
-    <row r="652">
+    <row r="652" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F652" s="12"/>
       <c r="G652" s="12"/>
     </row>
-    <row r="653">
+    <row r="653" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F653" s="12"/>
       <c r="G653" s="12"/>
     </row>
-    <row r="654">
+    <row r="654" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F654" s="12"/>
       <c r="G654" s="12"/>
     </row>
-    <row r="655">
+    <row r="655" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F655" s="12"/>
       <c r="G655" s="12"/>
     </row>
-    <row r="656">
+    <row r="656" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F656" s="12"/>
       <c r="G656" s="12"/>
     </row>
-    <row r="657">
+    <row r="657" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F657" s="12"/>
       <c r="G657" s="12"/>
     </row>
-    <row r="658">
+    <row r="658" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F658" s="12"/>
       <c r="G658" s="12"/>
     </row>
-    <row r="659">
+    <row r="659" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F659" s="12"/>
       <c r="G659" s="12"/>
     </row>
-    <row r="660">
+    <row r="660" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F660" s="12"/>
       <c r="G660" s="12"/>
     </row>
-    <row r="661">
+    <row r="661" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F661" s="12"/>
       <c r="G661" s="12"/>
     </row>
-    <row r="662">
+    <row r="662" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F662" s="12"/>
       <c r="G662" s="12"/>
     </row>
-    <row r="663">
+    <row r="663" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F663" s="12"/>
       <c r="G663" s="12"/>
     </row>
-    <row r="664">
+    <row r="664" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F664" s="12"/>
       <c r="G664" s="12"/>
     </row>
-    <row r="665">
+    <row r="665" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F665" s="12"/>
       <c r="G665" s="12"/>
     </row>
-    <row r="666">
+    <row r="666" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F666" s="12"/>
       <c r="G666" s="12"/>
     </row>
-    <row r="667">
+    <row r="667" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F667" s="12"/>
       <c r="G667" s="12"/>
     </row>
-    <row r="668">
+    <row r="668" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F668" s="12"/>
       <c r="G668" s="12"/>
     </row>
-    <row r="669">
+    <row r="669" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F669" s="12"/>
       <c r="G669" s="12"/>
     </row>
-    <row r="670">
+    <row r="670" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F670" s="12"/>
       <c r="G670" s="12"/>
     </row>
-    <row r="671">
+    <row r="671" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F671" s="12"/>
       <c r="G671" s="12"/>
     </row>
-    <row r="672">
+    <row r="672" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F672" s="12"/>
       <c r="G672" s="12"/>
     </row>
-    <row r="673">
+    <row r="673" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F673" s="12"/>
       <c r="G673" s="12"/>
     </row>
-    <row r="674">
+    <row r="674" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F674" s="12"/>
       <c r="G674" s="12"/>
     </row>
-    <row r="675">
+    <row r="675" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F675" s="12"/>
       <c r="G675" s="12"/>
     </row>
-    <row r="676">
+    <row r="676" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F676" s="12"/>
       <c r="G676" s="12"/>
     </row>
-    <row r="677">
+    <row r="677" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F677" s="12"/>
       <c r="G677" s="12"/>
     </row>
-    <row r="678">
+    <row r="678" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F678" s="12"/>
       <c r="G678" s="12"/>
     </row>
-    <row r="679">
+    <row r="679" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F679" s="12"/>
       <c r="G679" s="12"/>
     </row>
-    <row r="680">
+    <row r="680" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F680" s="12"/>
       <c r="G680" s="12"/>
     </row>
-    <row r="681">
+    <row r="681" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F681" s="12"/>
       <c r="G681" s="12"/>
     </row>
-    <row r="682">
+    <row r="682" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F682" s="12"/>
       <c r="G682" s="12"/>
     </row>
-    <row r="683">
+    <row r="683" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F683" s="12"/>
       <c r="G683" s="12"/>
     </row>
-    <row r="684">
+    <row r="684" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F684" s="12"/>
       <c r="G684" s="12"/>
     </row>
-    <row r="685">
+    <row r="685" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F685" s="12"/>
       <c r="G685" s="12"/>
     </row>
-    <row r="686">
+    <row r="686" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F686" s="12"/>
       <c r="G686" s="12"/>
     </row>
-    <row r="687">
+    <row r="687" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F687" s="12"/>
       <c r="G687" s="12"/>
     </row>
-    <row r="688">
+    <row r="688" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F688" s="12"/>
       <c r="G688" s="12"/>
     </row>
-    <row r="689">
+    <row r="689" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F689" s="12"/>
       <c r="G689" s="12"/>
     </row>
-    <row r="690">
+    <row r="690" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F690" s="12"/>
       <c r="G690" s="12"/>
     </row>
-    <row r="691">
+    <row r="691" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F691" s="12"/>
       <c r="G691" s="12"/>
     </row>
-    <row r="692">
+    <row r="692" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F692" s="12"/>
       <c r="G692" s="12"/>
     </row>
-    <row r="693">
+    <row r="693" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F693" s="12"/>
       <c r="G693" s="12"/>
     </row>
-    <row r="694">
+    <row r="694" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F694" s="12"/>
       <c r="G694" s="12"/>
     </row>
-    <row r="695">
+    <row r="695" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F695" s="12"/>
       <c r="G695" s="12"/>
     </row>
-    <row r="696">
+    <row r="696" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F696" s="12"/>
       <c r="G696" s="12"/>
     </row>
-    <row r="697">
+    <row r="697" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F697" s="12"/>
       <c r="G697" s="12"/>
     </row>
-    <row r="698">
+    <row r="698" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F698" s="12"/>
       <c r="G698" s="12"/>
     </row>
-    <row r="699">
+    <row r="699" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F699" s="12"/>
       <c r="G699" s="12"/>
     </row>
-    <row r="700">
+    <row r="700" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F700" s="12"/>
       <c r="G700" s="12"/>
     </row>
-    <row r="701">
+    <row r="701" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F701" s="12"/>
       <c r="G701" s="12"/>
     </row>
-    <row r="702">
+    <row r="702" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F702" s="12"/>
       <c r="G702" s="12"/>
     </row>
-    <row r="703">
+    <row r="703" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F703" s="12"/>
       <c r="G703" s="12"/>
     </row>
-    <row r="704">
+    <row r="704" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F704" s="12"/>
       <c r="G704" s="12"/>
     </row>
-    <row r="705">
+    <row r="705" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F705" s="12"/>
       <c r="G705" s="12"/>
     </row>
-    <row r="706">
+    <row r="706" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F706" s="12"/>
       <c r="G706" s="12"/>
     </row>
-    <row r="707">
+    <row r="707" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F707" s="12"/>
       <c r="G707" s="12"/>
     </row>
-    <row r="708">
+    <row r="708" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F708" s="12"/>
       <c r="G708" s="12"/>
     </row>
-    <row r="709">
+    <row r="709" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F709" s="12"/>
       <c r="G709" s="12"/>
     </row>
-    <row r="710">
+    <row r="710" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F710" s="12"/>
       <c r="G710" s="12"/>
     </row>
-    <row r="711">
+    <row r="711" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F711" s="12"/>
       <c r="G711" s="12"/>
     </row>
-    <row r="712">
+    <row r="712" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F712" s="12"/>
       <c r="G712" s="12"/>
     </row>
-    <row r="713">
+    <row r="713" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F713" s="12"/>
       <c r="G713" s="12"/>
     </row>
-    <row r="714">
+    <row r="714" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F714" s="12"/>
       <c r="G714" s="12"/>
     </row>
-    <row r="715">
+    <row r="715" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F715" s="12"/>
       <c r="G715" s="12"/>
     </row>
-    <row r="716">
+    <row r="716" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F716" s="12"/>
       <c r="G716" s="12"/>
     </row>
-    <row r="717">
+    <row r="717" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F717" s="12"/>
       <c r="G717" s="12"/>
     </row>
-    <row r="718">
+    <row r="718" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F718" s="12"/>
       <c r="G718" s="12"/>
     </row>
-    <row r="719">
+    <row r="719" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F719" s="12"/>
       <c r="G719" s="12"/>
     </row>
-    <row r="720">
+    <row r="720" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F720" s="12"/>
       <c r="G720" s="12"/>
     </row>
-    <row r="721">
+    <row r="721" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F721" s="12"/>
       <c r="G721" s="12"/>
     </row>
-    <row r="722">
+    <row r="722" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F722" s="12"/>
       <c r="G722" s="12"/>
     </row>
-    <row r="723">
+    <row r="723" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F723" s="12"/>
       <c r="G723" s="12"/>
     </row>
-    <row r="724">
+    <row r="724" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F724" s="12"/>
       <c r="G724" s="12"/>
     </row>
-    <row r="725">
+    <row r="725" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F725" s="12"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726">
+    <row r="726" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F726" s="12"/>
       <c r="G726" s="12"/>
     </row>
-    <row r="727">
+    <row r="727" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F727" s="12"/>
       <c r="G727" s="12"/>
     </row>
-    <row r="728">
+    <row r="728" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F728" s="12"/>
       <c r="G728" s="12"/>
     </row>
-    <row r="729">
+    <row r="729" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
     </row>
-    <row r="730">
+    <row r="730" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
     </row>
-    <row r="731">
+    <row r="731" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
     </row>
-    <row r="732">
+    <row r="732" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
     </row>
-    <row r="733">
+    <row r="733" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
     </row>
-    <row r="734">
+    <row r="734" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F734" s="12"/>
       <c r="G734" s="12"/>
     </row>
-    <row r="735">
+    <row r="735" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F735" s="12"/>
       <c r="G735" s="12"/>
     </row>
-    <row r="736">
+    <row r="736" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F736" s="12"/>
       <c r="G736" s="12"/>
     </row>
-    <row r="737">
+    <row r="737" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F737" s="12"/>
       <c r="G737" s="12"/>
     </row>
-    <row r="738">
+    <row r="738" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F738" s="12"/>
       <c r="G738" s="12"/>
     </row>
-    <row r="739">
+    <row r="739" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F739" s="12"/>
       <c r="G739" s="12"/>
     </row>
-    <row r="740">
+    <row r="740" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F740" s="12"/>
       <c r="G740" s="12"/>
     </row>
-    <row r="741">
+    <row r="741" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F741" s="12"/>
       <c r="G741" s="12"/>
     </row>
-    <row r="742">
+    <row r="742" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F742" s="12"/>
       <c r="G742" s="12"/>
     </row>
-    <row r="743">
+    <row r="743" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F743" s="12"/>
       <c r="G743" s="12"/>
     </row>
-    <row r="744">
+    <row r="744" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F744" s="12"/>
       <c r="G744" s="12"/>
     </row>
-    <row r="745">
+    <row r="745" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F745" s="12"/>
       <c r="G745" s="12"/>
     </row>
-    <row r="746">
+    <row r="746" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F746" s="12"/>
       <c r="G746" s="12"/>
     </row>
-    <row r="747">
+    <row r="747" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F747" s="12"/>
       <c r="G747" s="12"/>
     </row>
-    <row r="748">
+    <row r="748" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F748" s="12"/>
       <c r="G748" s="12"/>
     </row>
-    <row r="749">
+    <row r="749" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F749" s="12"/>
       <c r="G749" s="12"/>
     </row>
-    <row r="750">
+    <row r="750" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F750" s="12"/>
       <c r="G750" s="12"/>
     </row>
-    <row r="751">
+    <row r="751" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F751" s="12"/>
       <c r="G751" s="12"/>
     </row>
-    <row r="752">
+    <row r="752" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F752" s="12"/>
       <c r="G752" s="12"/>
     </row>
-    <row r="753">
+    <row r="753" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F753" s="12"/>
       <c r="G753" s="12"/>
     </row>
-    <row r="754">
+    <row r="754" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F754" s="12"/>
       <c r="G754" s="12"/>
     </row>
-    <row r="755">
+    <row r="755" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F755" s="12"/>
       <c r="G755" s="12"/>
     </row>
-    <row r="756">
+    <row r="756" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
     </row>
-    <row r="757">
+    <row r="757" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
     </row>
-    <row r="758">
+    <row r="758" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
     </row>
-    <row r="759">
+    <row r="759" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
     </row>
-    <row r="760">
+    <row r="760" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
     </row>
-    <row r="761">
+    <row r="761" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F761" s="12"/>
       <c r="G761" s="12"/>
     </row>
-    <row r="762">
+    <row r="762" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F762" s="12"/>
       <c r="G762" s="12"/>
     </row>
-    <row r="763">
+    <row r="763" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F763" s="12"/>
       <c r="G763" s="12"/>
     </row>
-    <row r="764">
+    <row r="764" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F764" s="12"/>
       <c r="G764" s="12"/>
     </row>
-    <row r="765">
+    <row r="765" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F765" s="12"/>
       <c r="G765" s="12"/>
     </row>
-    <row r="766">
+    <row r="766" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F766" s="12"/>
       <c r="G766" s="12"/>
     </row>
-    <row r="767">
+    <row r="767" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F767" s="12"/>
       <c r="G767" s="12"/>
     </row>
-    <row r="768">
+    <row r="768" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F768" s="12"/>
       <c r="G768" s="12"/>
     </row>
-    <row r="769">
+    <row r="769" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F769" s="12"/>
       <c r="G769" s="12"/>
     </row>
-    <row r="770">
+    <row r="770" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F770" s="12"/>
       <c r="G770" s="12"/>
     </row>
-    <row r="771">
+    <row r="771" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F771" s="12"/>
       <c r="G771" s="12"/>
     </row>
-    <row r="772">
+    <row r="772" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F772" s="12"/>
       <c r="G772" s="12"/>
     </row>
-    <row r="773">
+    <row r="773" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F773" s="12"/>
       <c r="G773" s="12"/>
     </row>
-    <row r="774">
+    <row r="774" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F774" s="12"/>
       <c r="G774" s="12"/>
     </row>
-    <row r="775">
+    <row r="775" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F775" s="12"/>
       <c r="G775" s="12"/>
     </row>
-    <row r="776">
+    <row r="776" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F776" s="12"/>
       <c r="G776" s="12"/>
     </row>
-    <row r="777">
+    <row r="777" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F777" s="12"/>
       <c r="G777" s="12"/>
     </row>
-    <row r="778">
+    <row r="778" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F778" s="12"/>
       <c r="G778" s="12"/>
     </row>
-    <row r="779">
+    <row r="779" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F779" s="12"/>
       <c r="G779" s="12"/>
     </row>
-    <row r="780">
+    <row r="780" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F780" s="12"/>
       <c r="G780" s="12"/>
     </row>
-    <row r="781">
+    <row r="781" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F781" s="12"/>
       <c r="G781" s="12"/>
     </row>
-    <row r="782">
+    <row r="782" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F782" s="12"/>
       <c r="G782" s="12"/>
     </row>
-    <row r="783">
+    <row r="783" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F783" s="12"/>
       <c r="G783" s="12"/>
     </row>
-    <row r="784">
+    <row r="784" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F784" s="12"/>
       <c r="G784" s="12"/>
     </row>
-    <row r="785">
+    <row r="785" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F785" s="12"/>
       <c r="G785" s="12"/>
     </row>
-    <row r="786">
+    <row r="786" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F786" s="12"/>
       <c r="G786" s="12"/>
     </row>
-    <row r="787">
+    <row r="787" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F787" s="12"/>
       <c r="G787" s="12"/>
     </row>
-    <row r="788">
+    <row r="788" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F788" s="12"/>
       <c r="G788" s="12"/>
     </row>
-    <row r="789">
+    <row r="789" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F789" s="12"/>
       <c r="G789" s="12"/>
     </row>
-    <row r="790">
+    <row r="790" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F790" s="12"/>
       <c r="G790" s="12"/>
     </row>
-    <row r="791">
+    <row r="791" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F791" s="12"/>
       <c r="G791" s="12"/>
     </row>
-    <row r="792">
+    <row r="792" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F792" s="12"/>
       <c r="G792" s="12"/>
     </row>
-    <row r="793">
+    <row r="793" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F793" s="12"/>
       <c r="G793" s="12"/>
     </row>
-    <row r="794">
+    <row r="794" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F794" s="12"/>
       <c r="G794" s="12"/>
     </row>
-    <row r="795">
+    <row r="795" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F795" s="12"/>
       <c r="G795" s="12"/>
     </row>
-    <row r="796">
+    <row r="796" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F796" s="12"/>
       <c r="G796" s="12"/>
     </row>
-    <row r="797">
+    <row r="797" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F797" s="12"/>
       <c r="G797" s="12"/>
     </row>
-    <row r="798">
+    <row r="798" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F798" s="12"/>
       <c r="G798" s="12"/>
     </row>
-    <row r="799">
+    <row r="799" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F799" s="12"/>
       <c r="G799" s="12"/>
     </row>
-    <row r="800">
+    <row r="800" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F800" s="12"/>
       <c r="G800" s="12"/>
     </row>
-    <row r="801">
+    <row r="801" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F801" s="12"/>
       <c r="G801" s="12"/>
     </row>
-    <row r="802">
+    <row r="802" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F802" s="12"/>
       <c r="G802" s="12"/>
     </row>
-    <row r="803">
+    <row r="803" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F803" s="12"/>
       <c r="G803" s="12"/>
     </row>
-    <row r="804">
+    <row r="804" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F804" s="12"/>
       <c r="G804" s="12"/>
     </row>
-    <row r="805">
+    <row r="805" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F805" s="12"/>
       <c r="G805" s="12"/>
     </row>
-    <row r="806">
+    <row r="806" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F806" s="12"/>
       <c r="G806" s="12"/>
     </row>
-    <row r="807">
+    <row r="807" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F807" s="12"/>
       <c r="G807" s="12"/>
     </row>
-    <row r="808">
+    <row r="808" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F808" s="12"/>
       <c r="G808" s="12"/>
     </row>
-    <row r="809">
+    <row r="809" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F809" s="12"/>
       <c r="G809" s="12"/>
     </row>
-    <row r="810">
+    <row r="810" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F810" s="12"/>
       <c r="G810" s="12"/>
     </row>
-    <row r="811">
+    <row r="811" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F811" s="12"/>
       <c r="G811" s="12"/>
     </row>
-    <row r="812">
+    <row r="812" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F812" s="12"/>
       <c r="G812" s="12"/>
     </row>
-    <row r="813">
+    <row r="813" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F813" s="12"/>
       <c r="G813" s="12"/>
     </row>
-    <row r="814">
+    <row r="814" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F814" s="12"/>
       <c r="G814" s="12"/>
     </row>
-    <row r="815">
+    <row r="815" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F815" s="12"/>
       <c r="G815" s="12"/>
     </row>
-    <row r="816">
+    <row r="816" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F816" s="12"/>
       <c r="G816" s="12"/>
     </row>
-    <row r="817">
+    <row r="817" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F817" s="12"/>
       <c r="G817" s="12"/>
     </row>
-    <row r="818">
+    <row r="818" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F818" s="12"/>
       <c r="G818" s="12"/>
     </row>
-    <row r="819">
+    <row r="819" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F819" s="12"/>
       <c r="G819" s="12"/>
     </row>
-    <row r="820">
+    <row r="820" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F820" s="12"/>
       <c r="G820" s="12"/>
     </row>
-    <row r="821">
+    <row r="821" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F821" s="12"/>
       <c r="G821" s="12"/>
     </row>
-    <row r="822">
+    <row r="822" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F822" s="12"/>
       <c r="G822" s="12"/>
     </row>
-    <row r="823">
+    <row r="823" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F823" s="12"/>
       <c r="G823" s="12"/>
     </row>
-    <row r="824">
+    <row r="824" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F824" s="12"/>
       <c r="G824" s="12"/>
     </row>
-    <row r="825">
+    <row r="825" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F825" s="12"/>
       <c r="G825" s="12"/>
     </row>
-    <row r="826">
+    <row r="826" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F826" s="12"/>
       <c r="G826" s="12"/>
     </row>
-    <row r="827">
+    <row r="827" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F827" s="12"/>
       <c r="G827" s="12"/>
     </row>
-    <row r="828">
+    <row r="828" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F828" s="12"/>
       <c r="G828" s="12"/>
     </row>
-    <row r="829">
+    <row r="829" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F829" s="12"/>
       <c r="G829" s="12"/>
     </row>
-    <row r="830">
+    <row r="830" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F830" s="12"/>
       <c r="G830" s="12"/>
     </row>
-    <row r="831">
+    <row r="831" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F831" s="12"/>
       <c r="G831" s="12"/>
     </row>
-    <row r="832">
+    <row r="832" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F832" s="12"/>
       <c r="G832" s="12"/>
     </row>
-    <row r="833">
+    <row r="833" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F833" s="12"/>
       <c r="G833" s="12"/>
     </row>
-    <row r="834">
+    <row r="834" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F834" s="12"/>
       <c r="G834" s="12"/>
     </row>
-    <row r="835">
+    <row r="835" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F835" s="12"/>
       <c r="G835" s="12"/>
     </row>
-    <row r="836">
+    <row r="836" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F836" s="12"/>
       <c r="G836" s="12"/>
     </row>
-    <row r="837">
+    <row r="837" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F837" s="12"/>
       <c r="G837" s="12"/>
     </row>
-    <row r="838">
+    <row r="838" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F838" s="12"/>
       <c r="G838" s="12"/>
     </row>
-    <row r="839">
+    <row r="839" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
     </row>
-    <row r="840">
+    <row r="840" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
     </row>
-    <row r="841">
+    <row r="841" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
     </row>
-    <row r="842">
+    <row r="842" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
     </row>
-    <row r="843">
+    <row r="843" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
     </row>
-    <row r="844">
+    <row r="844" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
     </row>
-    <row r="845">
+    <row r="845" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F845" s="12"/>
       <c r="G845" s="12"/>
     </row>
-    <row r="846">
+    <row r="846" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F846" s="12"/>
       <c r="G846" s="12"/>
     </row>
-    <row r="847">
+    <row r="847" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F847" s="12"/>
       <c r="G847" s="12"/>
     </row>
-    <row r="848">
+    <row r="848" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F848" s="12"/>
       <c r="G848" s="12"/>
     </row>
-    <row r="849">
+    <row r="849" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F849" s="12"/>
       <c r="G849" s="12"/>
     </row>
-    <row r="850">
+    <row r="850" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F850" s="12"/>
       <c r="G850" s="12"/>
     </row>
-    <row r="851">
+    <row r="851" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F851" s="12"/>
       <c r="G851" s="12"/>
     </row>
-    <row r="852">
+    <row r="852" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F852" s="12"/>
       <c r="G852" s="12"/>
     </row>
-    <row r="853">
+    <row r="853" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F853" s="12"/>
       <c r="G853" s="12"/>
     </row>
-    <row r="854">
+    <row r="854" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F854" s="12"/>
       <c r="G854" s="12"/>
     </row>
-    <row r="855">
+    <row r="855" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F855" s="12"/>
       <c r="G855" s="12"/>
     </row>
-    <row r="856">
+    <row r="856" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F856" s="12"/>
       <c r="G856" s="12"/>
     </row>
-    <row r="857">
+    <row r="857" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F857" s="12"/>
       <c r="G857" s="12"/>
     </row>
-    <row r="858">
+    <row r="858" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F858" s="12"/>
       <c r="G858" s="12"/>
     </row>
-    <row r="859">
+    <row r="859" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F859" s="12"/>
       <c r="G859" s="12"/>
     </row>
-    <row r="860">
+    <row r="860" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F860" s="12"/>
       <c r="G860" s="12"/>
     </row>
-    <row r="861">
+    <row r="861" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F861" s="12"/>
       <c r="G861" s="12"/>
     </row>
-    <row r="862">
+    <row r="862" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F862" s="12"/>
       <c r="G862" s="12"/>
     </row>
-    <row r="863">
+    <row r="863" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F863" s="12"/>
       <c r="G863" s="12"/>
     </row>
-    <row r="864">
+    <row r="864" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F864" s="12"/>
       <c r="G864" s="12"/>
     </row>
-    <row r="865">
+    <row r="865" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F865" s="12"/>
       <c r="G865" s="12"/>
     </row>
-    <row r="866">
+    <row r="866" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F866" s="12"/>
       <c r="G866" s="12"/>
     </row>
-    <row r="867">
+    <row r="867" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F867" s="12"/>
       <c r="G867" s="12"/>
     </row>
-    <row r="868">
+    <row r="868" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F868" s="12"/>
       <c r="G868" s="12"/>
     </row>
-    <row r="869">
+    <row r="869" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F869" s="12"/>
       <c r="G869" s="12"/>
     </row>
-    <row r="870">
+    <row r="870" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F870" s="12"/>
       <c r="G870" s="12"/>
     </row>
-    <row r="871">
+    <row r="871" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F871" s="12"/>
       <c r="G871" s="12"/>
     </row>
-    <row r="872">
+    <row r="872" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F872" s="12"/>
       <c r="G872" s="12"/>
     </row>
-    <row r="873">
+    <row r="873" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F873" s="12"/>
       <c r="G873" s="12"/>
     </row>
-    <row r="874">
+    <row r="874" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F874" s="12"/>
       <c r="G874" s="12"/>
     </row>
-    <row r="875">
+    <row r="875" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F875" s="12"/>
       <c r="G875" s="12"/>
     </row>
-    <row r="876">
+    <row r="876" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F876" s="12"/>
       <c r="G876" s="12"/>
     </row>
-    <row r="877">
+    <row r="877" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F877" s="12"/>
       <c r="G877" s="12"/>
     </row>
-    <row r="878">
+    <row r="878" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F878" s="12"/>
       <c r="G878" s="12"/>
     </row>
-    <row r="879">
+    <row r="879" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F879" s="12"/>
       <c r="G879" s="12"/>
     </row>
-    <row r="880">
+    <row r="880" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F880" s="12"/>
       <c r="G880" s="12"/>
     </row>
-    <row r="881">
+    <row r="881" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F881" s="12"/>
       <c r="G881" s="12"/>
     </row>
-    <row r="882">
+    <row r="882" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F882" s="12"/>
       <c r="G882" s="12"/>
     </row>
-    <row r="883">
+    <row r="883" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F883" s="12"/>
       <c r="G883" s="12"/>
     </row>
-    <row r="884">
+    <row r="884" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F884" s="12"/>
       <c r="G884" s="12"/>
     </row>
-    <row r="885">
+    <row r="885" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F885" s="12"/>
       <c r="G885" s="12"/>
     </row>
-    <row r="886">
+    <row r="886" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F886" s="12"/>
       <c r="G886" s="12"/>
     </row>
-    <row r="887">
+    <row r="887" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F887" s="12"/>
       <c r="G887" s="12"/>
     </row>
-    <row r="888">
+    <row r="888" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F888" s="12"/>
       <c r="G888" s="12"/>
     </row>
-    <row r="889">
+    <row r="889" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F889" s="12"/>
       <c r="G889" s="12"/>
     </row>
-    <row r="890">
+    <row r="890" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F890" s="12"/>
       <c r="G890" s="12"/>
     </row>
-    <row r="891">
+    <row r="891" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F891" s="12"/>
       <c r="G891" s="12"/>
     </row>
-    <row r="892">
+    <row r="892" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F892" s="12"/>
       <c r="G892" s="12"/>
     </row>
-    <row r="893">
+    <row r="893" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F893" s="12"/>
       <c r="G893" s="12"/>
     </row>
-    <row r="894">
+    <row r="894" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F894" s="12"/>
       <c r="G894" s="12"/>
     </row>
-    <row r="895">
+    <row r="895" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F895" s="12"/>
       <c r="G895" s="12"/>
     </row>
-    <row r="896">
+    <row r="896" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F896" s="12"/>
       <c r="G896" s="12"/>
     </row>
-    <row r="897">
+    <row r="897" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F897" s="12"/>
       <c r="G897" s="12"/>
     </row>
-    <row r="898">
+    <row r="898" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F898" s="12"/>
       <c r="G898" s="12"/>
     </row>
-    <row r="899">
+    <row r="899" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F899" s="12"/>
       <c r="G899" s="12"/>
     </row>
-    <row r="900">
+    <row r="900" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F900" s="12"/>
       <c r="G900" s="12"/>
     </row>
-    <row r="901">
+    <row r="901" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F901" s="12"/>
       <c r="G901" s="12"/>
     </row>
-    <row r="902">
+    <row r="902" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F902" s="12"/>
       <c r="G902" s="12"/>
     </row>
-    <row r="903">
+    <row r="903" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F903" s="12"/>
       <c r="G903" s="12"/>
     </row>
-    <row r="904">
+    <row r="904" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F904" s="12"/>
       <c r="G904" s="12"/>
     </row>
-    <row r="905">
+    <row r="905" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F905" s="12"/>
       <c r="G905" s="12"/>
     </row>
-    <row r="906">
+    <row r="906" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F906" s="12"/>
       <c r="G906" s="12"/>
     </row>
-    <row r="907">
+    <row r="907" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F907" s="12"/>
       <c r="G907" s="12"/>
     </row>
-    <row r="908">
+    <row r="908" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F908" s="12"/>
       <c r="G908" s="12"/>
     </row>
-    <row r="909">
+    <row r="909" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F909" s="12"/>
       <c r="G909" s="12"/>
     </row>
-    <row r="910">
+    <row r="910" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F910" s="12"/>
       <c r="G910" s="12"/>
     </row>
-    <row r="911">
+    <row r="911" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F911" s="12"/>
       <c r="G911" s="12"/>
     </row>
-    <row r="912">
+    <row r="912" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F912" s="12"/>
       <c r="G912" s="12"/>
     </row>
-    <row r="913">
+    <row r="913" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F913" s="12"/>
       <c r="G913" s="12"/>
     </row>
-    <row r="914">
+    <row r="914" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F914" s="12"/>
       <c r="G914" s="12"/>
     </row>
-    <row r="915">
+    <row r="915" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F915" s="12"/>
       <c r="G915" s="12"/>
     </row>
-    <row r="916">
+    <row r="916" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F916" s="12"/>
       <c r="G916" s="12"/>
     </row>
-    <row r="917">
+    <row r="917" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F917" s="12"/>
       <c r="G917" s="12"/>
     </row>
-    <row r="918">
+    <row r="918" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F918" s="12"/>
       <c r="G918" s="12"/>
     </row>
-    <row r="919">
+    <row r="919" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F919" s="12"/>
       <c r="G919" s="12"/>
     </row>
-    <row r="920">
+    <row r="920" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F920" s="12"/>
       <c r="G920" s="12"/>
     </row>
-    <row r="921">
+    <row r="921" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F921" s="12"/>
       <c r="G921" s="12"/>
     </row>
-    <row r="922">
+    <row r="922" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F922" s="12"/>
       <c r="G922" s="12"/>
     </row>
-    <row r="923">
+    <row r="923" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F923" s="12"/>
       <c r="G923" s="12"/>
     </row>
-    <row r="924">
+    <row r="924" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F924" s="12"/>
       <c r="G924" s="12"/>
     </row>
-    <row r="925">
+    <row r="925" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F925" s="12"/>
       <c r="G925" s="12"/>
     </row>
-    <row r="926">
+    <row r="926" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F926" s="12"/>
       <c r="G926" s="12"/>
     </row>
-    <row r="927">
+    <row r="927" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F927" s="12"/>
       <c r="G927" s="12"/>
     </row>
-    <row r="928">
+    <row r="928" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F928" s="12"/>
       <c r="G928" s="12"/>
     </row>
-    <row r="929">
+    <row r="929" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F929" s="12"/>
       <c r="G929" s="12"/>
     </row>
-    <row r="930">
+    <row r="930" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F930" s="12"/>
       <c r="G930" s="12"/>
     </row>
-    <row r="931">
+    <row r="931" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F931" s="12"/>
       <c r="G931" s="12"/>
     </row>
-    <row r="932">
+    <row r="932" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F932" s="12"/>
       <c r="G932" s="12"/>
     </row>
-    <row r="933">
+    <row r="933" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F933" s="12"/>
       <c r="G933" s="12"/>
     </row>
-    <row r="934">
+    <row r="934" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F934" s="12"/>
       <c r="G934" s="12"/>
     </row>
-    <row r="935">
+    <row r="935" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F935" s="12"/>
       <c r="G935" s="12"/>
     </row>
-    <row r="936">
+    <row r="936" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F936" s="12"/>
       <c r="G936" s="12"/>
     </row>
-    <row r="937">
+    <row r="937" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F937" s="12"/>
       <c r="G937" s="12"/>
     </row>
-    <row r="938">
+    <row r="938" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F938" s="12"/>
       <c r="G938" s="12"/>
     </row>
-    <row r="939">
+    <row r="939" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F939" s="12"/>
       <c r="G939" s="12"/>
     </row>
-    <row r="940">
+    <row r="940" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F940" s="12"/>
       <c r="G940" s="12"/>
     </row>
-    <row r="941">
+    <row r="941" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F941" s="12"/>
       <c r="G941" s="12"/>
     </row>
-    <row r="942">
+    <row r="942" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F942" s="12"/>
       <c r="G942" s="12"/>
     </row>
-    <row r="943">
+    <row r="943" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F943" s="12"/>
       <c r="G943" s="12"/>
     </row>
-    <row r="944">
+    <row r="944" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F944" s="12"/>
       <c r="G944" s="12"/>
     </row>
-    <row r="945">
+    <row r="945" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F945" s="12"/>
       <c r="G945" s="12"/>
     </row>
-    <row r="946">
+    <row r="946" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F946" s="12"/>
       <c r="G946" s="12"/>
     </row>
-    <row r="947">
+    <row r="947" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F947" s="12"/>
       <c r="G947" s="12"/>
     </row>
-    <row r="948">
+    <row r="948" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F948" s="12"/>
       <c r="G948" s="12"/>
     </row>
-    <row r="949">
+    <row r="949" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F949" s="12"/>
       <c r="G949" s="12"/>
     </row>
-    <row r="950">
+    <row r="950" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F950" s="12"/>
       <c r="G950" s="12"/>
     </row>
-    <row r="951">
+    <row r="951" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F951" s="12"/>
       <c r="G951" s="12"/>
     </row>
-    <row r="952">
+    <row r="952" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F952" s="12"/>
       <c r="G952" s="12"/>
     </row>
-    <row r="953">
+    <row r="953" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F953" s="12"/>
       <c r="G953" s="12"/>
     </row>
-    <row r="954">
+    <row r="954" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F954" s="12"/>
       <c r="G954" s="12"/>
     </row>
-    <row r="955">
+    <row r="955" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F955" s="12"/>
       <c r="G955" s="12"/>
     </row>
-    <row r="956">
+    <row r="956" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F956" s="12"/>
       <c r="G956" s="12"/>
     </row>
-    <row r="957">
+    <row r="957" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F957" s="12"/>
       <c r="G957" s="12"/>
     </row>
-    <row r="958">
+    <row r="958" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F958" s="12"/>
       <c r="G958" s="12"/>
     </row>
-    <row r="959">
+    <row r="959" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F959" s="12"/>
       <c r="G959" s="12"/>
     </row>
-    <row r="960">
+    <row r="960" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F960" s="12"/>
       <c r="G960" s="12"/>
     </row>
-    <row r="961">
+    <row r="961" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F961" s="12"/>
       <c r="G961" s="12"/>
     </row>
-    <row r="962">
+    <row r="962" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F962" s="12"/>
       <c r="G962" s="12"/>
     </row>
-    <row r="963">
+    <row r="963" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F963" s="12"/>
       <c r="G963" s="12"/>
     </row>
-    <row r="964">
+    <row r="964" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F964" s="12"/>
       <c r="G964" s="12"/>
     </row>
-    <row r="965">
+    <row r="965" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F965" s="12"/>
       <c r="G965" s="12"/>
     </row>
-    <row r="966">
+    <row r="966" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F966" s="12"/>
       <c r="G966" s="12"/>
     </row>
-    <row r="967">
+    <row r="967" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F967" s="12"/>
       <c r="G967" s="12"/>
     </row>
-    <row r="968">
+    <row r="968" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F968" s="12"/>
       <c r="G968" s="12"/>
     </row>
-    <row r="969">
+    <row r="969" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F969" s="12"/>
       <c r="G969" s="12"/>
     </row>
-    <row r="970">
+    <row r="970" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F970" s="12"/>
       <c r="G970" s="12"/>
     </row>
-    <row r="971">
+    <row r="971" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F971" s="12"/>
       <c r="G971" s="12"/>
     </row>
-    <row r="972">
+    <row r="972" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F972" s="12"/>
       <c r="G972" s="12"/>
     </row>
-    <row r="973">
+    <row r="973" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F973" s="12"/>
       <c r="G973" s="12"/>
     </row>
-    <row r="974">
+    <row r="974" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F974" s="12"/>
       <c r="G974" s="12"/>
     </row>
-    <row r="975">
+    <row r="975" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F975" s="12"/>
       <c r="G975" s="12"/>
     </row>
-    <row r="976">
+    <row r="976" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F976" s="12"/>
       <c r="G976" s="12"/>
     </row>
-    <row r="977">
+    <row r="977" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F977" s="12"/>
       <c r="G977" s="12"/>
     </row>
-    <row r="978">
+    <row r="978" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F978" s="12"/>
       <c r="G978" s="12"/>
     </row>
-    <row r="979">
+    <row r="979" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F979" s="12"/>
       <c r="G979" s="12"/>
     </row>
-    <row r="980">
+    <row r="980" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F980" s="12"/>
       <c r="G980" s="12"/>
     </row>
-    <row r="981">
+    <row r="981" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F981" s="12"/>
       <c r="G981" s="12"/>
     </row>
-    <row r="982">
+    <row r="982" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F982" s="12"/>
       <c r="G982" s="12"/>
     </row>
-    <row r="983">
+    <row r="983" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F983" s="12"/>
       <c r="G983" s="12"/>
     </row>
-    <row r="984">
+    <row r="984" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F984" s="12"/>
       <c r="G984" s="12"/>
     </row>
-    <row r="985">
+    <row r="985" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F985" s="12"/>
       <c r="G985" s="12"/>
     </row>
-    <row r="986">
+    <row r="986" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F986" s="12"/>
       <c r="G986" s="12"/>
     </row>
-    <row r="987">
+    <row r="987" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F987" s="12"/>
       <c r="G987" s="12"/>
     </row>
-    <row r="988">
+    <row r="988" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F988" s="12"/>
       <c r="G988" s="12"/>
     </row>
-    <row r="989">
+    <row r="989" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F989" s="12"/>
       <c r="G989" s="12"/>
     </row>
-    <row r="990">
+    <row r="990" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F990" s="12"/>
       <c r="G990" s="12"/>
     </row>
-    <row r="991">
+    <row r="991" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F991" s="12"/>
       <c r="G991" s="12"/>
     </row>
-    <row r="992">
+    <row r="992" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F992" s="12"/>
       <c r="G992" s="12"/>
     </row>
-    <row r="993">
+    <row r="993" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F993" s="12"/>
       <c r="G993" s="12"/>
     </row>
-    <row r="994">
+    <row r="994" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F994" s="12"/>
       <c r="G994" s="12"/>
     </row>
-    <row r="995">
+    <row r="995" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F995" s="12"/>
       <c r="G995" s="12"/>
     </row>
-    <row r="996">
+    <row r="996" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F996" s="12"/>
       <c r="G996" s="12"/>
     </row>
-    <row r="997">
+    <row r="997" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F997" s="12"/>
       <c r="G997" s="12"/>
     </row>
-    <row r="998">
+    <row r="998" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F998" s="12"/>
       <c r="G998" s="12"/>
     </row>
-    <row r="999">
+    <row r="999" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F999" s="12"/>
       <c r="G999" s="12"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F1000" s="12"/>
       <c r="G1000" s="12"/>
     </row>
+    <row r="1001" spans="6:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1001" s="12"/>
+      <c r="G1001" s="12"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F1000">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="F3:F1001">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"Tested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1000">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="F3:F1001">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1000">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="F3:F1001">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1000">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="G18:G1001">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"Developed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1000">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+  <conditionalFormatting sqref="G18:G1001">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G1000">
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"Issue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G17">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Developed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G17">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G1001">
       <formula1>"Developed,Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1000">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1001">
       <formula1>"Tested,Issue,Pending"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>